--- a/20deg.xlsx
+++ b/20deg.xlsx
@@ -35,9 +35,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>x_c</t>
-  </si>
-  <si>
     <t>y_c</t>
   </si>
   <si>
@@ -45,6 +42,10 @@
   </si>
   <si>
     <t>y_cc</t>
+  </si>
+  <si>
+    <t>x_c</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4589,37 +4590,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-23.60859</c:v>
+                  <c:v>199.52223699999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-21.125497000000003</c:v>
+                  <c:v>176.77794299999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-18.642403999999999</c:v>
+                  <c:v>154.033649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16.159311000000002</c:v>
+                  <c:v>131.289355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-13.676218</c:v>
+                  <c:v>108.54506099999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.193125</c:v>
+                  <c:v>85.800766999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.710032</c:v>
+                  <c:v>63.056472999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.2269389999999998</c:v>
+                  <c:v>40.312178999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.7438459999999996</c:v>
+                  <c:v>17.56788499999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2607529999999993</c:v>
+                  <c:v>-5.1764090000000067</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2223400000000009</c:v>
+                  <c:v>-27.920703000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,37 +4711,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.3332269999999999</c:v>
+                  <c:v>-1.2742560000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4540769999999998</c:v>
+                  <c:v>-1.4067410000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.574927</c:v>
+                  <c:v>-1.5392260000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.6957769999999999</c:v>
+                  <c:v>-1.6717110000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.816627</c:v>
+                  <c:v>-1.8041960000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.9374769999999999</c:v>
+                  <c:v>-1.9366810000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.0583269999999998</c:v>
+                  <c:v>-2.0691660000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.1791769999999997</c:v>
+                  <c:v>-2.201651</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.300027</c:v>
+                  <c:v>-2.334136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.4208769999999999</c:v>
+                  <c:v>-2.466621</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.5417269999999998</c:v>
+                  <c:v>-2.5991059999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4787,7 +4788,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.5544739999999999</c:v>
+                  <c:v>3.8801610000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4799,7 +4800,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-2.367035</c:v>
+                  <c:v>-2.450745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4846,7 +4847,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-4.3877389999999998</c:v>
+                  <c:v>-4.0505409999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4858,7 +4859,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.4072199999999999</c:v>
+                  <c:v>-1.4000429999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5910,8 +5911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5942,12 +5943,12 @@
         <v>-5</v>
       </c>
       <c r="P1">
-        <f>2.483093*O1-11.193125</f>
-        <v>-23.60859</v>
+        <f>-22.744294*O1+85.800767</f>
+        <v>199.52223699999999</v>
       </c>
       <c r="Q1">
-        <f>-0.12085*O1-1.937477</f>
-        <v>-1.3332269999999999</v>
+        <f>-0.132485*O1-1.936681</f>
+        <v>-1.2742560000000003</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -5976,12 +5977,12 @@
         <v>-4</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P11" si="0">2.483093*O2-11.193125</f>
-        <v>-21.125497000000003</v>
+        <f t="shared" ref="P2:P11" si="0">-22.744294*O2+85.800767</f>
+        <v>176.77794299999999</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q11" si="1">-0.12085*O2-1.937477</f>
-        <v>-1.4540769999999998</v>
+        <f t="shared" ref="Q2:Q11" si="1">-0.132485*O2-1.936681</f>
+        <v>-1.4067410000000002</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
@@ -6011,11 +6012,11 @@
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
-        <v>-18.642403999999999</v>
+        <v>154.033649</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>-1.574927</v>
+        <v>-1.5392260000000002</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -6045,11 +6046,11 @@
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>-16.159311000000002</v>
+        <v>131.289355</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>-1.6957769999999999</v>
+        <v>-1.6717110000000002</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -6079,11 +6080,11 @@
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>-13.676218</v>
+        <v>108.54506099999999</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>-1.816627</v>
+        <v>-1.8041960000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -6113,11 +6114,11 @@
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>-11.193125</v>
+        <v>85.800766999999993</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>-1.9374769999999999</v>
+        <v>-1.9366810000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -6147,11 +6148,11 @@
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>-8.710032</v>
+        <v>63.056472999999997</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>-2.0583269999999998</v>
+        <v>-2.0691660000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -6181,11 +6182,11 @@
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>-6.2269389999999998</v>
+        <v>40.312178999999993</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>-2.1791769999999997</v>
+        <v>-2.201651</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -6215,11 +6216,11 @@
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>-3.7438459999999996</v>
+        <v>17.56788499999999</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>-2.300027</v>
+        <v>-2.334136</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -6249,11 +6250,11 @@
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>-1.2607529999999993</v>
+        <v>-5.1764090000000067</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>-2.4208769999999999</v>
+        <v>-2.466621</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -6283,11 +6284,11 @@
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>1.2223400000000009</v>
+        <v>-27.920703000000003</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>-2.5417269999999998</v>
+        <v>-2.5991059999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
@@ -6428,22 +6429,22 @@
         <v>-0.25196000000000002</v>
       </c>
       <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>3.8801610000000002</v>
+      </c>
+      <c r="L17" t="s">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>3.5544739999999999</v>
-      </c>
-      <c r="L17" t="s">
-        <v>4</v>
-      </c>
       <c r="M17" t="s">
         <v>1</v>
       </c>
       <c r="N17">
-        <v>-2.367035</v>
+        <v>-2.450745</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
@@ -6469,22 +6470,22 @@
         <v>-0.26790199999999997</v>
       </c>
       <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>-4.0505409999999999</v>
+      </c>
+      <c r="L18" t="s">
         <v>5</v>
       </c>
-      <c r="J18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>-4.3877389999999998</v>
-      </c>
-      <c r="L18" t="s">
-        <v>6</v>
-      </c>
       <c r="M18" t="s">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>-1.4072199999999999</v>
+        <v>-1.4000429999999999</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
